--- a/1__REPORT_AUTOMATION/USEFUL_FUNCTIONS/FORMULA_API/REFERENCE_FILES/FUNCTIONS.xlsx
+++ b/1__REPORT_AUTOMATION/USEFUL_FUNCTIONS/FORMULA_API/REFERENCE_FILES/FUNCTIONS.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westhomas/Desktop/ALFRED_AI/FORMULA_API/REFERENCE_FILES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/westhomas/Desktop/ALFRED/1__REPORT_AUTOMATION/USEFUL_FUNCTIONS/FORMULA_API/REFERENCE_FILES/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4023E2-8C02-1144-92A4-03533ABB1492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A457092-07C0-574D-86F3-5F2180FADDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="880" windowWidth="17380" windowHeight="22500" xr2:uid="{E496BFA4-66BC-49D0-9628-6D200FD426F9}"/>
+    <workbookView xWindow="16260" yWindow="880" windowWidth="17380" windowHeight="22500" xr2:uid="{E496BFA4-66BC-49D0-9628-6D200FD426F9}"/>
   </bookViews>
   <sheets>
     <sheet name="FUNCTIONS" sheetId="3" r:id="rId1"/>
     <sheet name="OPERATORS" sheetId="4" r:id="rId2"/>
+    <sheet name="OTHER" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
   <si>
     <t>IF</t>
   </si>
@@ -864,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A235A256-1673-734F-BB7F-A0F53732F27F}">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -917,400 +918,6 @@
       </c>
       <c r="D3" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1389,4 +996,460 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F2C78F-08A7-7D47-B5C2-303D927FD18C}">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
+    <col min="2" max="2" width="90" customWidth="1"/>
+    <col min="3" max="4" width="31.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="19"/>
+      <c r="C23" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="19"/>
+      <c r="C27" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="19"/>
+      <c r="C29" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="19"/>
+      <c r="C33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>